--- a/data/RegisterLoyalUser.xlsx
+++ b/data/RegisterLoyalUser.xlsx
@@ -52,7 +52,7 @@
     <t>VerifyMsg</t>
   </si>
   <si>
-    <t>sudharsan.kg+388@saggezza.com</t>
+    <t>sudharsan.kg+410@saggezza.com</t>
   </si>
   <si>
     <t>sagezza123</t>
@@ -273,7 +273,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
